--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1956093.07525039</v>
+        <v>1950371.463282505</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836216</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095117</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.0844120950029</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>87.17482549607487</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.0492085588716</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1023876523964</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>47.50320101340399</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>118.5752159771142</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.4422623037135</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>50.10211945890749</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>17.68532773870707</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>73.03689209589214</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334168</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>67.33742371513297</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>119.7717018720452</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292625</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734026365</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983822</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004751</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.96411613814792</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734026365</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983822</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004751</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>17.43545665623881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734026365</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.3178014938913</v>
+        <v>14.20188851094979</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983822</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292625</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132191986</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983822</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004751</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.6905821001374</v>
+        <v>77.31354443380475</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292632</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881761</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.5968754185112</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824776</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734012859</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004753</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0598196324603</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292632</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881761</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.5968754185112</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824776</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734101615</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>13.8907283799716</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983823</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>221.4556695190082</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292632</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881761</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.5968754185112</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824776</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734101615</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.337001996713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>37.24809668699591</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4188,10 +4188,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1714.263756178945</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>548.6555185181858</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>162.8672659199415</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>155.9217651707381</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>141.998361109329</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>141.998361109329</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.914677487028</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.6292392479589</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6292392479589</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245969</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1680.577747274852</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1680.577747274852</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1322.312048668102</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1322.312048668102</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>911.3261438784943</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>493.3623357766812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>166.1676158126841</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.577747274852</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>578.9391196286279</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>578.9391196286279</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>578.9391196286279</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>578.9391196286279</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>2119.115747685226</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>2119.115747685226</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,22 +4883,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C10" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="D10" t="n">
-        <v>321.2872383163224</v>
+        <v>548.5954256477207</v>
       </c>
       <c r="E10" t="n">
-        <v>173.3741447339293</v>
+        <v>400.6823320653276</v>
       </c>
       <c r="F10" t="n">
-        <v>173.3741447339293</v>
+        <v>253.7923845674173</v>
       </c>
       <c r="G10" t="n">
-        <v>173.3741447339293</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>173.3741447339293</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,22 +5047,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,19 +5281,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>2762.028521254639</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1745.531491819762</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.764876389288</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1234.662009514932</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>979.9775213090447</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>690.5603512720841</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>462.5708003740667</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.7782212305366</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1002.806306216384</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.840519464791</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294618</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353399</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232735</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.49719767968</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549545</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.5895482553302</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>360.5895482553302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>360.5895482553302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5895482553302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689054</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258579</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384223</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783363</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413758</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433584</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>360.5895482553302</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074192</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972645</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750618</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580445</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.08092980709</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750061</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5816,43 +5816,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549545</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>489.2205378245272</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>489.2205378245272</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689054</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258579</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384223</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783363</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>891.6615817982971</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>891.6615817982971</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>670.869002654767</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5977,37 +5977,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074192</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972645</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750618</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580445</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.08092980709</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750061</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549545</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>815.0433889280819</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="C25" t="n">
-        <v>646.107206000175</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="D25" t="n">
-        <v>495.9905665878392</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="E25" t="n">
-        <v>495.9905665878392</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="F25" t="n">
-        <v>495.9905665878392</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104699</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104699</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674225</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799869</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1445.473983799869</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1445.473983799869</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X25" t="n">
-        <v>1217.484432901852</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y25" t="n">
-        <v>996.6918537583216</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176174</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366025</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195852</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.028521254632</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232735</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.49719767968</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6290,43 +6290,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320297</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6384,52 +6384,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931526</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.141533600159</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>321.2053114736943</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>975.9286436089927</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1840.447459262346</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2373.979363934269</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.758180993049</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.722831322503</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>805.5092287479695</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C31" t="n">
-        <v>805.5092287479695</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>655.3925893356337</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689054</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1570.089162971743</v>
+        <v>1878.248976777628</v>
       </c>
       <c r="U31" t="n">
-        <v>1280.986296097386</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V31" t="n">
-        <v>1026.301807891499</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W31" t="n">
-        <v>1026.301807891499</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X31" t="n">
-        <v>1026.301807891499</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y31" t="n">
-        <v>805.5092287479695</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>321.205311473695</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>975.9286436089933</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1840.447459262346</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2373.979363934269</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.75818099305</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.722831322503</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216193</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763711</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089892</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390112</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193575</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320217</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454336</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426843</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902944</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549544</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
         <v>95.56103444839442</v>
@@ -6858,52 +6858,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442055</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927009</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689053</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.483872535053</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1257.381005660696</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1002.69651745481</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>713.2793474178488</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>485.2897965198315</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>264.4972173763014</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,73 +6916,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427772</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.56914656307</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811478</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.1352644834</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542181</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232736</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679681</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188668</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763711</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089892</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390112</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193665</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320307</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454345</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426852</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7055,13 +7055,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>485.9938459101019</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C37" t="n">
-        <v>485.9938459101019</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="D37" t="n">
-        <v>485.9938459101019</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>485.9938459101019</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442055</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927009</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104699</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931525</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501051</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626695</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208081</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838475</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X37" t="n">
-        <v>485.9938459101019</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.9938459101019</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,67 +7159,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427772</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.56914656307</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811478</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.1352644834</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353401</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232736</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679681</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188668</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763711</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089892</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390112</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193575</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320217</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454336</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426843</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902944</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7292,7 +7292,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>873.2202818640282</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>704.2840989361213</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361213</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>556.3710053537282</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442055</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927009</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104699</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104699</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.343466104699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.658977898812</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1412.241807861851</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1184.252256963834</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.4596778203039</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7481,31 +7481,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902952</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>691.3210226232574</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1100.959038351514</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>872.9694874534971</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>872.9694874534971</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7836,7 +7836,7 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
         <v>1270.093287563029</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>219.9458872952495</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="O14" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>219.3344627260267</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.496531173600829e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400358</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.496531173600829e-12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400358</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.496531173600829e-12</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>219.3344627260274</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>37.13651117805577</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>37.13651117805657</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.875539192487736e-12</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.702583647697</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>344.7025836476971</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>214.5414662356955</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>69.99732345939667</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>148.978024996588</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.6205372139469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.0875416803522</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>10.70800676513696</v>
+        <v>151.8239197480784</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004751</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983822</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004751</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.1421360569706</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>115.8583671760318</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983823</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>92.48912964370892</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>134.7247446382408</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004753</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>4.25398587002897</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.4949781852243</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983823</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004753</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.769025331442</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>129.9987244116319</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874552.5358744259</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874552.5358744259</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874552.5358744259</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583911</v>
-      </c>
       <c r="E2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="G2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="H2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536060.4122974279</v>
+      </c>
+      <c r="J2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="K2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="L2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="M2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="N2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="O2" t="n">
         <v>536060.4122974273</v>
       </c>
-      <c r="I2" t="n">
-        <v>536060.4122974272</v>
-      </c>
-      <c r="J2" t="n">
-        <v>536060.4122974272</v>
-      </c>
-      <c r="K2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="L2" t="n">
-        <v>536060.4122974272</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>536060.4122974275</v>
-      </c>
-      <c r="N2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="O2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="P2" t="n">
-        <v>536060.4122974278</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.011341013266551e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.694142156338785e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,31 +26429,31 @@
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709205</v>
-      </c>
       <c r="H4" t="n">
-        <v>21619.60799709205</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709205</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709201</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709201</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709207</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709203</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709203</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26484,34 +26484,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.5182537136</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310830.3590119923</v>
+        <v>-310830.3590119925</v>
       </c>
       <c r="C6" t="n">
+        <v>279137.5202025518</v>
+      </c>
+      <c r="D6" t="n">
         <v>279137.5202025521</v>
       </c>
-      <c r="D6" t="n">
-        <v>279137.5202025519</v>
-      </c>
       <c r="E6" t="n">
-        <v>-309320.1279467847</v>
+        <v>-309992.0828490424</v>
       </c>
       <c r="F6" t="n">
-        <v>418057.2860466216</v>
+        <v>417385.3311443641</v>
       </c>
       <c r="G6" t="n">
-        <v>418057.2860466235</v>
+        <v>417385.3311443641</v>
       </c>
       <c r="H6" t="n">
-        <v>418057.2860466216</v>
+        <v>417385.3311443642</v>
       </c>
       <c r="I6" t="n">
-        <v>418057.2860466215</v>
+        <v>417385.3311443644</v>
       </c>
       <c r="J6" t="n">
-        <v>241634.0668540286</v>
+        <v>240962.1119517713</v>
       </c>
       <c r="K6" t="n">
-        <v>418057.2860466217</v>
+        <v>417385.3311443641</v>
       </c>
       <c r="L6" t="n">
-        <v>418057.2860466215</v>
+        <v>417385.331144364</v>
       </c>
       <c r="M6" t="n">
-        <v>288414.9712076771</v>
+        <v>287743.0163054195</v>
       </c>
       <c r="N6" t="n">
-        <v>418057.2860466217</v>
+        <v>417385.331144364</v>
       </c>
       <c r="O6" t="n">
-        <v>418057.2860466201</v>
+        <v>417385.3311443638</v>
       </c>
       <c r="P6" t="n">
-        <v>418057.2860466222</v>
+        <v>417385.3311443641</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,28 +26752,28 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.086763155543158e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128.6494295684777</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>64.75649074878638</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.7827716230657</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114808</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>40.82892859246485</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.975201561407708</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>106.45988948097</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>64.97345050525799</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>319.6289812195615</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>149.6244745203439</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>61.92872969644608</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138863</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987558</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681587</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495398</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003797</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623178</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574977</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095005</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099042</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746399</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781679</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806928</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798526</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175224</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138784</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233461</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.647816683791</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970238</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002917</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987479</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238306</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898476</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430533</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311875</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742005</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098813</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883108</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712196</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553028</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112276</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681587</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495398</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003797</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623178</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574977</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095005</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099042</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746399</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781679</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806928</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798526</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175224</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.512347035324</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138784</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233461</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.647816683791</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970238</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002917</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987479</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238306</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898476</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430533</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311875</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742005</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098813</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883108</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712196</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553028</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112276</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681587</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495398</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003797</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623178</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574977</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095005</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099042</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746399</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781679</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806928</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798526</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175224</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138784</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233461</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.647816683791</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970238</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002917</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987572</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238306</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898476</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430533</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311875</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742005</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098813</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883108</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712196</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553028</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112276</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>772.2477227081609</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35658,13 +35658,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>769.2895937392452</v>
       </c>
       <c r="O14" t="n">
-        <v>727.3874636142355</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>556.525749281426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923307</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230577</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129099</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882176</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636232</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152067</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687118</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553992</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427811</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230577</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.648759824894</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282534</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193705</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037185</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222421</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127265</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865553992</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427811</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230577</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.648759824894</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282534</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193705</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222421</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865553992</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923307</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230577</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129099</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>727.387463614245</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636232</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152067</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340122</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>227.9235121467676</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.336699126564</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427811</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302252</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129099</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.853182150963</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193705</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636232</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127344</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>227.9235121467683</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265639</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.251328942781</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302249</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129097</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509628</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193704</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636231</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152066</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597659</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340042</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013278</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004577</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859614</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127264</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306591</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.047659544319</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701974</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675394</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789329</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407855</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265639</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923306</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302249</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129097</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359144</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636231</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152066</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597659</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609649</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340042</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013278</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004577</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859614</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127264</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306591</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.047659544319</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701974</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675394</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789329</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407855</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265639</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923306</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302249</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>897.0044190606068</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882174</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636231</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152066</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597659</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340042</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013278</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004577</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859614</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127357</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306591</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.047659544319</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701974</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675394</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789329</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1950371.463282505</v>
+        <v>1953776.954406954</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>87.17482549607487</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>132.336201967293</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.50320101340399</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>202.8465275956994</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.4422623037135</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>17.68532773870707</v>
+        <v>17.68532773870695</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>25.01141625626309</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>11.16818915334168</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.33742371513297</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.20884842038511</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>18.26879610203982</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>8.559242828906072</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.20188851094979</v>
+        <v>141.167062152907</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>18.26879610203983</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>77.31354443380475</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>246.5927137859538</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>19.48923120238923</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>13.8907283799716</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>81.17400253769905</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>197.4995743803898</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192029</v>
+        <v>156.3460220671599</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249362</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>548.6555185181858</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>162.8672659199415</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>155.9217651707381</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>141.998361109329</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>141.998361109329</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2332.269982582792</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2078.508197220883</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>525.2409238118514</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2649.166059691552</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2649.166059691552</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2649.166059691552</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2649.166059691552</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.103172347981</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1965.334517077867</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>426.2278443065823</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>412.3044402451732</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2531.572661847995</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477207</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653276</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674173</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G10" t="n">
         <v>235.9284171545818</v>
@@ -4959,10 +4959,10 @@
         <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,16 +5047,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
         <v>4405.689038432984</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089897</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.4168978689405</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.85794184271</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.0653626991802</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5290,10 +5290,10 @@
         <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3297.750360443163</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.8867116300491</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="C16" t="n">
-        <v>192.8867116300491</v>
+        <v>540.7502584559452</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>540.7502584559452</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>540.7502584559452</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>393.8603109580348</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5478,10 +5478,10 @@
         <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,19 +5515,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423046</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C19" t="n">
-        <v>242.4509819463048</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5706,19 +5706,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5761,37 +5761,37 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6071,7 +6071,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320243</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>278.8425593065537</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C25" t="n">
-        <v>109.9063763786467</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D25" t="n">
-        <v>109.9063763786467</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E25" t="n">
-        <v>109.9063763786467</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="F25" t="n">
-        <v>109.9063763786467</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2731541783409</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>681.2836032803235</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>460.4910241367934</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="26">
@@ -6205,67 +6205,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6442,25 +6442,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6469,46 +6469,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888352</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O29" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.6138567886371</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
-        <v>245.6776738607302</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1878.248976777628</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.146109903272</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1334.461621697385</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1045.044451660424</v>
+        <v>660.1896048995997</v>
       </c>
       <c r="X31" t="n">
-        <v>817.0549007624069</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="Y31" t="n">
-        <v>596.2623216188767</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6709,19 +6709,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>653.6966825353827</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6964,7 +6964,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -7007,22 +7007,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>278.5282561439494</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C37" t="n">
-        <v>109.5920732160425</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7095,52 +7095,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953327</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442091</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927052</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1874.349524147435</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258584</v>
+        <v>1585.246657273078</v>
       </c>
       <c r="V37" t="n">
-        <v>1198.376021052697</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="W37" t="n">
-        <v>908.9588510157366</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="X37" t="n">
-        <v>680.9693001177193</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y37" t="n">
-        <v>460.1767209741892</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.23381931859</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827578</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7256,10 +7256,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7268,7 +7268,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902953</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1756.848946528553</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866391</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142067</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282341</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,16 +7584,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
         <v>1780.96276986786</v>
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7836,22 +7836,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>219.9458872952495</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>216.9877583263337</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>248.8400772687159</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10357,22 +10357,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>39.4832155777267</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>29.61882225791996</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704337</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.4225463903061</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23469,7 +23469,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>214.5414662356955</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.4945564668043</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>111.8169598386431</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>148.978024996588</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>277.9637555076849</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>126.486218812281</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>151.8239197480784</v>
+        <v>24.8587461061212</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>39.93028455063723</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>199.0954221497056</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>134.7247446382408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.3749467384702</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>88.71226382522306</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696631</v>
+        <v>63.20292720900929</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="16">
@@ -26316,16 +26316,16 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="G2" t="n">
         <v>536060.4122974277</v>
@@ -26334,28 +26334,28 @@
         <v>536060.4122974277</v>
       </c>
       <c r="I2" t="n">
-        <v>536060.4122974279</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="J2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="K2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="L2" t="n">
+        <v>536060.4122974279</v>
+      </c>
+      <c r="M2" t="n">
         <v>536060.4122974275</v>
-      </c>
-      <c r="M2" t="n">
-        <v>536060.4122974278</v>
       </c>
       <c r="N2" t="n">
         <v>536060.4122974275</v>
       </c>
       <c r="O2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="P2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974277</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
@@ -26435,31 +26435,31 @@
         <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310830.3590119925</v>
+        <v>-310830.3590119923</v>
       </c>
       <c r="C6" t="n">
-        <v>279137.5202025518</v>
+        <v>279137.5202025519</v>
       </c>
       <c r="D6" t="n">
-        <v>279137.5202025521</v>
+        <v>279137.520202552</v>
       </c>
       <c r="E6" t="n">
-        <v>-309992.0828490424</v>
+        <v>-309387.3234370103</v>
       </c>
       <c r="F6" t="n">
-        <v>417385.3311443641</v>
+        <v>417990.0905563962</v>
       </c>
       <c r="G6" t="n">
-        <v>417385.3311443641</v>
+        <v>417990.0905563963</v>
       </c>
       <c r="H6" t="n">
-        <v>417385.3311443642</v>
+        <v>417990.0905563963</v>
       </c>
       <c r="I6" t="n">
-        <v>417385.3311443644</v>
+        <v>417990.0905563965</v>
       </c>
       <c r="J6" t="n">
-        <v>240962.1119517713</v>
+        <v>241566.8713638035</v>
       </c>
       <c r="K6" t="n">
-        <v>417385.3311443641</v>
+        <v>417990.0905563964</v>
       </c>
       <c r="L6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563965</v>
       </c>
       <c r="M6" t="n">
-        <v>287743.0163054195</v>
+        <v>288347.7757174514</v>
       </c>
       <c r="N6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563961</v>
       </c>
       <c r="O6" t="n">
-        <v>417385.3311443638</v>
+        <v>417990.0905563962</v>
       </c>
       <c r="P6" t="n">
-        <v>417385.3311443641</v>
+        <v>417990.0905563963</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>64.75649074878638</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>84.11211839036477</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>9.269126437646321</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.975201561407708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>121.0762451686577</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>64.97345050525799</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>149.6244745203439</v>
+        <v>149.624474520344</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33034,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>772.2477227081609</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35658,13 +35658,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>769.2895937392452</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>615.7497445457057</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36129,13 +36129,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,16 +36372,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36849,7 +36849,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>647.6020634880878</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37077,22 +37077,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>591.7850509906382</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306895</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>404.7279243224438</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
